--- a/variant_22/Задание 18/18.xlsx
+++ b/variant_22/Задание 18/18.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Admin\Downloads\10 вариант\Файлы\Задание 18\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8025"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="8025"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,8 +19,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,7 +121,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -161,7 +156,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -338,23 +333,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J10"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="1">
         <v>86</v>
       </c>
@@ -386,7 +381,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>96</v>
       </c>
@@ -418,7 +413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>98</v>
       </c>
@@ -450,7 +445,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>82</v>
       </c>
@@ -482,7 +477,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>22</v>
       </c>
@@ -514,7 +509,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>21</v>
       </c>
@@ -546,7 +541,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>35</v>
       </c>
@@ -578,7 +573,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>15</v>
       </c>
@@ -610,7 +605,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>39</v>
       </c>
@@ -642,7 +637,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>17</v>
       </c>
@@ -672,6 +667,429 @@
       </c>
       <c r="J10" s="1">
         <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13">
+        <f t="shared" ref="A13:A20" si="0">A1+A14</f>
+        <v>511</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ref="B13:B20" si="1">B1+MIN(A13,B14)</f>
+        <v>459</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:C21" si="2">C1+MIN(B13,C14)</f>
+        <v>466</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ref="D13:D21" si="3">D1+MIN(C13,D14)</f>
+        <v>457</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ref="E13:E21" si="4">E1+MIN(D13,E14)</f>
+        <v>548</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ref="F13:F21" si="5">F1+MIN(E13,F14)</f>
+        <v>644</v>
+      </c>
+      <c r="G13">
+        <f t="shared" ref="G13:G21" si="6">G1+MIN(F13,G14)</f>
+        <v>628</v>
+      </c>
+      <c r="H13">
+        <f t="shared" ref="H13:H21" si="7">H1+MIN(G13,H14)</f>
+        <v>535</v>
+      </c>
+      <c r="I13">
+        <f t="shared" ref="I13:I21" si="8">I1+MIN(H13,I14)</f>
+        <v>548</v>
+      </c>
+      <c r="J13">
+        <f t="shared" ref="J13:J21" si="9">J1+MIN(I13,J14)</f>
+        <v>527</v>
+      </c>
+      <c r="M13">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>425</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="1"/>
+        <v>419</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="2"/>
+        <v>425</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="3"/>
+        <v>444</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="4"/>
+        <v>502</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="5"/>
+        <v>582</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="6"/>
+        <v>540</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="7"/>
+        <v>493</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="8"/>
+        <v>475</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="9"/>
+        <v>476</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>329</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="1"/>
+        <v>396</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="2"/>
+        <v>467</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="3"/>
+        <v>439</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="4"/>
+        <v>475</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="5"/>
+        <v>554</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="6"/>
+        <v>477</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="7"/>
+        <v>461</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="8"/>
+        <v>444</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="9"/>
+        <v>526</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>231</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="1"/>
+        <v>310</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="2"/>
+        <v>378</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="3"/>
+        <v>379</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="4"/>
+        <v>443</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="5"/>
+        <v>459</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="6"/>
+        <v>442</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="7"/>
+        <v>439</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="8"/>
+        <v>414</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="9"/>
+        <v>467</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>149</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="1"/>
+        <v>211</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="2"/>
+        <v>281</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="3"/>
+        <v>296</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="4"/>
+        <v>351</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="5"/>
+        <v>407</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="6"/>
+        <v>378</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="7"/>
+        <v>381</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="8"/>
+        <v>409</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="9"/>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>127</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="1"/>
+        <v>134</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="2"/>
+        <v>233</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="3"/>
+        <v>253</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="4"/>
+        <v>259</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="5"/>
+        <v>321</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="6"/>
+        <v>351</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="7"/>
+        <v>394</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="8"/>
+        <v>412</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="9"/>
+        <v>446</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>106</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="1"/>
+        <v>186</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="2"/>
+        <v>229</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="3"/>
+        <v>316</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="4"/>
+        <v>408</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="5"/>
+        <v>387</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="6"/>
+        <v>370</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="7"/>
+        <v>359</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="8"/>
+        <v>398</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="9"/>
+        <v>487</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="1"/>
+        <v>114</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="2"/>
+        <v>197</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="3"/>
+        <v>217</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="4"/>
+        <v>311</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="5"/>
+        <v>316</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="6"/>
+        <v>295</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="7"/>
+        <v>319</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="8"/>
+        <v>391</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="9"/>
+        <v>476</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21">
+        <f>A9+A22</f>
+        <v>56</v>
+      </c>
+      <c r="B21">
+        <f>B9+MIN(A21,B22)</f>
+        <v>133</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="2"/>
+        <v>196</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="3"/>
+        <v>287</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="4"/>
+        <v>274</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="5"/>
+        <v>283</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="6"/>
+        <v>284</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="7"/>
+        <v>341</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="8"/>
+        <v>427</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="9"/>
+        <v>472</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22">
+        <f>A10</f>
+        <v>17</v>
+      </c>
+      <c r="B22">
+        <f>B10+A22</f>
+        <v>86</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ref="C22:J22" si="10">C10+B22</f>
+        <v>115</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="10"/>
+        <v>200</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="10"/>
+        <v>233</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="10"/>
+        <v>302</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="10"/>
+        <v>402</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="10"/>
+        <v>471</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="10"/>
+        <v>490</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="10"/>
+        <v>565</v>
       </c>
     </row>
   </sheetData>
